--- a/data/trans_dic/P55$auxiliar-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P55$auxiliar-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -729,17 +730,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,55</t>
+          <t>0,0; 40,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,81; 71,61</t>
+          <t>8,82; 71,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 24,69</t>
+          <t>2,74; 25,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,17 +750,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,46; 45,61</t>
+          <t>11,28; 45,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,87; 46,21</t>
+          <t>8,54; 45,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,43; 45,21</t>
+          <t>20,5; 44,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,24 +770,24 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,11; 35,05</t>
+          <t>10,54; 36,47</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14,11; 45,32</t>
+          <t>13,31; 45,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,49; 31,85</t>
+          <t>15,21; 31,61</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -869,7 +870,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,02</t>
+          <t>0,0; 28,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,54 +880,54 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,3; 38,37</t>
+          <t>5,27; 38,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,68</t>
+          <t>0,0; 23,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,01; 34,42</t>
+          <t>7,66; 32,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,21</t>
+          <t>0,0; 20,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,92; 23,76</t>
+          <t>8,78; 24,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,59</t>
+          <t>0,0; 11,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,99; 26,55</t>
+          <t>7,72; 25,6</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,38</t>
+          <t>0,0; 13,61</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,51; 22,66</t>
+          <t>8,85; 23,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1019,7 +1020,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,57; 34,58</t>
+          <t>10,77; 35,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,7 +1030,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,78; 56,41</t>
+          <t>19,93; 56,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,7 +1040,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,02; 33,43</t>
+          <t>15,8; 34,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,7 +1050,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,72; 39,33</t>
+          <t>10,59; 38,86</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,39; 31,46</t>
+          <t>16,33; 31,18</t>
         </is>
       </c>
     </row>
@@ -1154,52 +1155,52 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,77</t>
+          <t>0,0; 39,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,05; 57,71</t>
+          <t>20,31; 57,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,34; 25,23</t>
+          <t>3,28; 26,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 25,1</t>
+          <t>2,98; 26,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,66</t>
+          <t>0,0; 25,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,26; 37,67</t>
+          <t>19,21; 37,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,36; 18,84</t>
+          <t>2,27; 19,27</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 15,93</t>
+          <t>1,91; 17,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 25,0</t>
+          <t>2,91; 22,1</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,46; 39,96</t>
+          <t>22,65; 40,35</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1290,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,43; 75,62</t>
+          <t>12,32; 75,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,54 +1300,54 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,74; 61,94</t>
+          <t>17,52; 62,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,52</t>
+          <t>0,0; 25,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,79; 40,63</t>
+          <t>8,04; 40,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,95</t>
+          <t>0,0; 28,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>20,27; 48,46</t>
+          <t>19,46; 47,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,32</t>
+          <t>0,0; 18,12</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,33; 43,46</t>
+          <t>12,38; 43,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,68</t>
+          <t>0,0; 24,15</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,5; 45,51</t>
+          <t>22,24; 47,79</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1429,7 +1430,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,01; 53,11</t>
+          <t>6,03; 47,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,7 +1440,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,46; 23,84</t>
+          <t>6,21; 23,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,7 +1450,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,73; 48,94</t>
+          <t>9,67; 47,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,7 +1460,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>28,67; 48,68</t>
+          <t>28,12; 47,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,7 +1470,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,96; 40,36</t>
+          <t>10,77; 38,75</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,14 +1480,14 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>21,01; 34,35</t>
+          <t>20,12; 34,32</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1569,7 +1570,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,54</t>
+          <t>0,0; 17,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,47 +1580,47 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,01; 35,97</t>
+          <t>5,99; 34,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,22</t>
+          <t>0,0; 14,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,86; 26,43</t>
+          <t>6,14; 25,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,2; 20,07</t>
+          <t>2,19; 18,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,05; 35,65</t>
+          <t>16,93; 36,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,07</t>
+          <t>0,0; 11,69</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,08; 17,38</t>
+          <t>4,27; 19,13</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,45; 13,68</t>
+          <t>1,46; 14,01</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>15,55; 30,7</t>
+          <t>15,54; 31,22</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1705,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,09</t>
+          <t>0,0; 11,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1714,52 +1715,52 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,93</t>
+          <t>0,0; 20,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,42; 29,18</t>
+          <t>3,42; 27,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,9; 17,83</t>
+          <t>1,92; 17,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,52; 23,95</t>
+          <t>4,55; 23,41</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,85</t>
+          <t>0,0; 12,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,84; 26,09</t>
+          <t>10,79; 25,9</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,43; 12,37</t>
+          <t>1,43; 11,58</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>3,08; 16,45</t>
+          <t>3,22; 17,96</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,81</t>
+          <t>0,0; 8,76</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>10,06; 22,96</t>
+          <t>10,38; 22,72</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,37</t>
+          <t>0,0; 3,64</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,38; 13,59</t>
+          <t>4,28; 14,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,0; 9,63</t>
+          <t>2,08; 9,95</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>13,92; 23,98</t>
+          <t>13,98; 23,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,99; 7,38</t>
+          <t>1,87; 7,42</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,1; 23,8</t>
+          <t>13,99; 23,53</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,71; 10,81</t>
+          <t>3,77; 10,54</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>21,52; 27,68</t>
+          <t>21,26; 28,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,31; 5,09</t>
+          <t>1,62; 5,47</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>11,78; 19,01</t>
+          <t>11,65; 19,03</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>3,81; 9,16</t>
+          <t>3,86; 9,25</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>20,0; 25,34</t>
+          <t>19,86; 25,56</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda los Servicios Sociales cuando tiene dificultades en la actividades instrumentales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3198</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2939</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>7562</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5897</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10679</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>8515</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>9096</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>13618</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1624</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4742</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>793; 6458</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>740; 6804</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1919</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3208; 12857</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2116; 11382</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6745; 14782</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1889</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4240; 14666</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4495; 15277</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9116; 18945</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2078</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2488</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1066</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7746</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1336</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8483</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1066</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9824</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1336</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>10971</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1926</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6659</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1605</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>811; 5885</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5282</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3242; 13733</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7527</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4827; 13410</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4430</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5084; 16856</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6680</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6228; 16390</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5386</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9571</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10710</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>9571</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>16096</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1634</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1942</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1472</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2765; 9066</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1949</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5280; 14911</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2184</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7034; 15225</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1918</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4332; 15889</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1854</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>11465; 21890</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1804</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>6087</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3259</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4482</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2508</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>9982</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3259</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>4482</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>4312</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>16069</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1688</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1924</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5544</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3360; 9496</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1048; 8581</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1178; 10263</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7593</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>6899; 13514</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1027; 8731</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1120; 10046</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1262; 9577</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>11881; 21172</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3414</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2980</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>933</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5192</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2295</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5149</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>933</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>8605</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2295</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>8129</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1355</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1105; 6811</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1303</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1400; 5006</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3951</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2031; 10269</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6855</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3140; 7628</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4395</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4237; 14901</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7024</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>5365; 11532</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4276</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3195</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>5234</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>11898</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>9509</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>15093</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1706</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1091; 8550</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1492</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1503; 5655</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2047</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2057; 10119</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2336</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>8877; 15065</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1951</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>4241; 15252</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1978</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>11216; 19134</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1125</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3674</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>6370</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>4174</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>13550</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>7495</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>4174</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>17225</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1693</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5098</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1799</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1392; 8047</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5722</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3030; 12720</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1232; 10604</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>9045; 19355</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6769</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>3357; 15053</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1212; 11597</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>11914; 23940</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>836</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>1798</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>3265</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1342</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>10300</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>4101</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>2151</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>12099</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 3838</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2194</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5053</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>582; 4753</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>912; 8155</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>2133; 10977</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6801</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>6340; 15216</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1144; 9275</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>2177; 12165</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>0; 7042</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>7861; 17212</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>836</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>11846</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>5811</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>28548</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>9646</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>51695</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>17553</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>80752</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>10482</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>63540</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>23364</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>109300</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>0; 4607</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>6250; 20530</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>2529; 12082</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>21961; 37320</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>4324; 17142</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>39099; 65787</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>10079; 28185</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>69791; 92136</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>5776; 19551</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>49579; 81000</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>15005; 35978</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>96364; 124046</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>